--- a/Meeting_Minutes/Log of Meetings.xlsx
+++ b/Meeting_Minutes/Log of Meetings.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vandalsuidaho-my.sharepoint.com/personal/mead9103_vandals_uidaho_edu/Documents/Documents/2023-2024/Capstone Project/26-Physical-Rehabilitation/Meeting_Minutes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Molly Meadows\OneDrive - University of Idaho\Documents\2023-2024\Capstone Project\26-Physical-Rehabilitation\Meeting_Minutes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="11_F25DC773A252ABDACC10487B595B48E45ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F265C4F9-D088-43A8-90D9-364A4BC41602}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B112143D-FCE8-43B4-9D68-9695AE8A5C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Date</t>
   </si>
@@ -64,6 +64,15 @@
   </si>
   <si>
     <t>Upcoming Documentation</t>
+  </si>
+  <si>
+    <t>4:03pm</t>
+  </si>
+  <si>
+    <t>Product Requirement and initial research</t>
+  </si>
+  <si>
+    <t>35 minutes</t>
   </si>
 </sst>
 </file>
@@ -400,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -412,7 +421,7 @@
     <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -464,6 +473,23 @@
       </c>
       <c r="E3" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45188</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
